--- a/files/数据库设计计划书_项目管理系统(定稿).xlsx
+++ b/files/数据库设计计划书_项目管理系统(定稿).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="105">
   <si>
     <t>文档名称</t>
   </si>
@@ -160,7 +160,7 @@
     <t>密码</t>
   </si>
   <si>
-    <t>password</t>
+    <t>mem_password</t>
   </si>
   <si>
     <t>var</t>
@@ -299,6 +299,12 @@
   </si>
   <si>
     <t>proj_id</t>
+  </si>
+  <si>
+    <t>项目密令</t>
+  </si>
+  <si>
+    <t>pro_password</t>
   </si>
   <si>
     <t>项目名称</t>
@@ -330,10 +336,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -352,31 +358,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -390,7 +373,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -414,7 +419,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -428,7 +433,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -445,6 +450,14 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -468,24 +481,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -495,6 +493,14 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -529,13 +535,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -547,169 +613,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -843,35 +849,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -887,16 +864,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -920,23 +897,52 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -948,46 +954,46 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -996,97 +1002,97 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1512,10 +1518,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R48"/>
+  <dimension ref="A1:R49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="R46" sqref="R46"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="33.3333333333333" defaultRowHeight="13.2"/>
@@ -2405,10 +2411,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="43" s="4" customFormat="1" spans="1:15">
-      <c r="A43" s="4">
-        <v>2</v>
-      </c>
+    <row r="43" s="4" customFormat="1" spans="2:15">
       <c r="B43" s="4" t="s">
         <v>95</v>
       </c>
@@ -2428,90 +2431,113 @@
         <v>43</v>
       </c>
     </row>
-    <row r="44" s="4" customFormat="1" spans="1:14">
+    <row r="44" s="4" customFormat="1" spans="1:15">
       <c r="A44" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>97</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>70</v>
+        <v>49</v>
+      </c>
+      <c r="K44" s="4">
+        <v>32</v>
       </c>
       <c r="N44" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" s="4" customFormat="1" spans="1:16">
+      <c r="O44" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" s="4" customFormat="1" spans="1:14">
       <c r="A45" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="J45" s="4" t="s">
         <v>70</v>
       </c>
       <c r="N45" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" s="4" customFormat="1" spans="1:16">
+      <c r="A46" s="4">
+        <v>4</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="J46" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="N46" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="P45" s="4" t="s">
+      <c r="P46" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="46" s="4" customFormat="1" ht="14.4" spans="1:17">
-      <c r="A46" s="4">
+    <row r="47" s="4" customFormat="1" ht="14.4" spans="1:17">
+      <c r="A47" s="4">
         <v>5</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="J46" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="N46" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q46" s="33" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="47" s="4" customFormat="1" spans="1:16">
-      <c r="A47" s="4">
-        <v>6</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>100</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E47" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>102</v>
       </c>
       <c r="J47" s="4" t="s">
         <v>44</v>
       </c>
       <c r="N47" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q47" s="33" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" s="4" customFormat="1" spans="1:16">
+      <c r="A48" s="4">
+        <v>6</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N48" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="P47" s="4" t="s">
+      <c r="P48" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="48" s="6" customFormat="1"/>
+    <row r="49" s="6" customFormat="1"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="G14:I14"/>

--- a/files/数据库设计计划书_项目管理系统(定稿).xlsx
+++ b/files/数据库设计计划书_项目管理系统(定稿).xlsx
@@ -40,7 +40,7 @@
     <t>项目管理系统数据库</t>
   </si>
   <si>
-    <t>db_project_management_system</t>
+    <t>project_management_system_schema</t>
   </si>
   <si>
     <t>表格含义名</t>
@@ -336,9 +336,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="21">
@@ -359,13 +359,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -373,14 +366,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -401,9 +395,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -419,37 +421,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -464,23 +451,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -488,7 +459,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -535,25 +535,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -565,157 +715,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -879,6 +879,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -897,8 +906,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -921,17 +930,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -954,16 +954,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -972,127 +972,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1520,8 +1520,8 @@
   <sheetPr/>
   <dimension ref="A1:R49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="T15" sqref="T15"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="33.3333333333333" defaultRowHeight="13.2"/>
